--- a/MOS.xlsx
+++ b/MOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54263020-E28D-45DE-A702-F12A2410BD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAF688D-8191-4724-BF5E-D3893D82345A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1440" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -73,9 +76,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -357,12 +361,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="K3:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>35.76</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45823</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -371,7 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A22257-6929-42EC-8854-D7F6CDFCD613}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
